--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_140.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_140.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d76227-Reviews-Courtyard_by_Marriott_Anaheim_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>273</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Anaheim-Buena-Park.h21254.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_140.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_140.xlsx
@@ -1691,7 +1691,7 @@
     <t>Our stay was ok.. When we got there to check in there was noone at the desk. Finally after about 5 mins someone came. It smelt like smoke and there was hair in our tub. Only good thing about our stay here was the bed and it was quite at night so we got a good night's rest!</t>
   </si>
   <si>
-    <t>hammerdroogs</t>
+    <t>Mark R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76227-r252895365-Courtyard_by_Marriott_Anaheim_Buena_Park-Buena_Park_California.html</t>
@@ -4425,7 +4425,7 @@
         <v>19202</v>
       </c>
       <c r="B3" t="n">
-        <v>131831</v>
+        <v>162609</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -4490,7 +4490,7 @@
         <v>19202</v>
       </c>
       <c r="B4" t="n">
-        <v>131832</v>
+        <v>162610</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -4555,7 +4555,7 @@
         <v>19202</v>
       </c>
       <c r="B5" t="n">
-        <v>131833</v>
+        <v>162611</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -4620,7 +4620,7 @@
         <v>19202</v>
       </c>
       <c r="B6" t="n">
-        <v>131834</v>
+        <v>162612</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -4683,7 +4683,7 @@
         <v>19202</v>
       </c>
       <c r="B7" t="n">
-        <v>131835</v>
+        <v>162613</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -4884,7 +4884,7 @@
         <v>19202</v>
       </c>
       <c r="B10" t="n">
-        <v>131836</v>
+        <v>162614</v>
       </c>
       <c r="C10" t="s">
         <v>124</v>
@@ -5020,7 +5020,7 @@
         <v>19202</v>
       </c>
       <c r="B12" t="n">
-        <v>131837</v>
+        <v>162615</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
@@ -5085,7 +5085,7 @@
         <v>19202</v>
       </c>
       <c r="B13" t="n">
-        <v>131838</v>
+        <v>162616</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -5156,7 +5156,7 @@
         <v>19202</v>
       </c>
       <c r="B14" t="n">
-        <v>131839</v>
+        <v>162617</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -5288,7 +5288,7 @@
         <v>19202</v>
       </c>
       <c r="B16" t="n">
-        <v>131840</v>
+        <v>162618</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -5554,7 +5554,7 @@
         <v>19202</v>
       </c>
       <c r="B20" t="n">
-        <v>131841</v>
+        <v>162619</v>
       </c>
       <c r="C20" t="s">
         <v>206</v>
@@ -5615,7 +5615,7 @@
         <v>19202</v>
       </c>
       <c r="B21" t="n">
-        <v>131842</v>
+        <v>162620</v>
       </c>
       <c r="C21" t="s">
         <v>213</v>
@@ -5737,7 +5737,7 @@
         <v>19202</v>
       </c>
       <c r="B23" t="n">
-        <v>131843</v>
+        <v>162621</v>
       </c>
       <c r="C23" t="s">
         <v>228</v>
@@ -5808,7 +5808,7 @@
         <v>19202</v>
       </c>
       <c r="B24" t="n">
-        <v>131844</v>
+        <v>162622</v>
       </c>
       <c r="C24" t="s">
         <v>238</v>
@@ -5938,7 +5938,7 @@
         <v>19202</v>
       </c>
       <c r="B26" t="n">
-        <v>131845</v>
+        <v>162623</v>
       </c>
       <c r="C26" t="s">
         <v>254</v>
@@ -6074,7 +6074,7 @@
         <v>19202</v>
       </c>
       <c r="B28" t="n">
-        <v>131846</v>
+        <v>162624</v>
       </c>
       <c r="C28" t="s">
         <v>274</v>
@@ -6139,7 +6139,7 @@
         <v>19202</v>
       </c>
       <c r="B29" t="n">
-        <v>131847</v>
+        <v>162625</v>
       </c>
       <c r="C29" t="s">
         <v>284</v>
@@ -6208,7 +6208,7 @@
         <v>19202</v>
       </c>
       <c r="B30" t="n">
-        <v>131848</v>
+        <v>162626</v>
       </c>
       <c r="C30" t="s">
         <v>291</v>
@@ -6411,7 +6411,7 @@
         <v>19202</v>
       </c>
       <c r="B33" t="n">
-        <v>131849</v>
+        <v>162627</v>
       </c>
       <c r="C33" t="s">
         <v>319</v>
@@ -6476,7 +6476,7 @@
         <v>19202</v>
       </c>
       <c r="B34" t="n">
-        <v>131850</v>
+        <v>162628</v>
       </c>
       <c r="C34" t="s">
         <v>327</v>
@@ -6673,7 +6673,7 @@
         <v>19202</v>
       </c>
       <c r="B37" t="n">
-        <v>131851</v>
+        <v>162629</v>
       </c>
       <c r="C37" t="s">
         <v>351</v>
@@ -6744,7 +6744,7 @@
         <v>19202</v>
       </c>
       <c r="B38" t="n">
-        <v>131852</v>
+        <v>162630</v>
       </c>
       <c r="C38" t="s">
         <v>359</v>
@@ -7020,7 +7020,7 @@
         <v>19202</v>
       </c>
       <c r="B42" t="n">
-        <v>131853</v>
+        <v>162631</v>
       </c>
       <c r="C42" t="s">
         <v>396</v>
@@ -7085,7 +7085,7 @@
         <v>19202</v>
       </c>
       <c r="B43" t="n">
-        <v>131854</v>
+        <v>162632</v>
       </c>
       <c r="C43" t="s">
         <v>406</v>
@@ -7150,7 +7150,7 @@
         <v>19202</v>
       </c>
       <c r="B44" t="n">
-        <v>131855</v>
+        <v>162633</v>
       </c>
       <c r="C44" t="s">
         <v>412</v>
@@ -7215,7 +7215,7 @@
         <v>19202</v>
       </c>
       <c r="B45" t="n">
-        <v>131856</v>
+        <v>162634</v>
       </c>
       <c r="C45" t="s">
         <v>418</v>
@@ -7347,7 +7347,7 @@
         <v>19202</v>
       </c>
       <c r="B47" t="n">
-        <v>131857</v>
+        <v>162635</v>
       </c>
       <c r="C47" t="s">
         <v>432</v>
@@ -7412,7 +7412,7 @@
         <v>19202</v>
       </c>
       <c r="B48" t="n">
-        <v>131858</v>
+        <v>162636</v>
       </c>
       <c r="C48" t="s">
         <v>440</v>
@@ -7544,7 +7544,7 @@
         <v>19202</v>
       </c>
       <c r="B50" t="n">
-        <v>131859</v>
+        <v>162637</v>
       </c>
       <c r="C50" t="s">
         <v>451</v>
@@ -7737,7 +7737,7 @@
         <v>19202</v>
       </c>
       <c r="B53" t="n">
-        <v>131860</v>
+        <v>162638</v>
       </c>
       <c r="C53" t="s">
         <v>469</v>
@@ -7802,7 +7802,7 @@
         <v>19202</v>
       </c>
       <c r="B54" t="n">
-        <v>131861</v>
+        <v>162639</v>
       </c>
       <c r="C54" t="s">
         <v>478</v>
@@ -7934,7 +7934,7 @@
         <v>19202</v>
       </c>
       <c r="B56" t="n">
-        <v>131862</v>
+        <v>162640</v>
       </c>
       <c r="C56" t="s">
         <v>494</v>
@@ -8003,7 +8003,7 @@
         <v>19202</v>
       </c>
       <c r="B57" t="n">
-        <v>131863</v>
+        <v>162641</v>
       </c>
       <c r="C57" t="s">
         <v>504</v>
@@ -8072,7 +8072,7 @@
         <v>19202</v>
       </c>
       <c r="B58" t="n">
-        <v>131864</v>
+        <v>162642</v>
       </c>
       <c r="C58" t="s">
         <v>513</v>
@@ -8269,7 +8269,7 @@
         <v>19202</v>
       </c>
       <c r="B61" t="n">
-        <v>131865</v>
+        <v>162643</v>
       </c>
       <c r="C61" t="s">
         <v>535</v>
@@ -8336,7 +8336,7 @@
         <v>19202</v>
       </c>
       <c r="B62" t="n">
-        <v>131866</v>
+        <v>162644</v>
       </c>
       <c r="C62" t="s">
         <v>542</v>
@@ -8401,7 +8401,7 @@
         <v>19202</v>
       </c>
       <c r="B63" t="n">
-        <v>131867</v>
+        <v>162645</v>
       </c>
       <c r="C63" t="s">
         <v>549</v>
@@ -8468,7 +8468,7 @@
         <v>19202</v>
       </c>
       <c r="B64" t="n">
-        <v>131868</v>
+        <v>12306</v>
       </c>
       <c r="C64" t="s">
         <v>555</v>
@@ -8535,7 +8535,7 @@
         <v>19202</v>
       </c>
       <c r="B65" t="n">
-        <v>131869</v>
+        <v>162646</v>
       </c>
       <c r="C65" t="s">
         <v>563</v>
@@ -8602,7 +8602,7 @@
         <v>19202</v>
       </c>
       <c r="B66" t="n">
-        <v>131870</v>
+        <v>162647</v>
       </c>
       <c r="C66" t="s">
         <v>569</v>
@@ -8667,7 +8667,7 @@
         <v>19202</v>
       </c>
       <c r="B67" t="n">
-        <v>131871</v>
+        <v>162648</v>
       </c>
       <c r="C67" t="s">
         <v>576</v>
@@ -8736,7 +8736,7 @@
         <v>19202</v>
       </c>
       <c r="B68" t="n">
-        <v>131872</v>
+        <v>162649</v>
       </c>
       <c r="C68" t="s">
         <v>585</v>
@@ -8793,7 +8793,7 @@
         <v>19202</v>
       </c>
       <c r="B69" t="n">
-        <v>131873</v>
+        <v>162650</v>
       </c>
       <c r="C69" t="s">
         <v>591</v>
@@ -8925,7 +8925,7 @@
         <v>19202</v>
       </c>
       <c r="B71" t="n">
-        <v>131874</v>
+        <v>162651</v>
       </c>
       <c r="C71" t="s">
         <v>605</v>
@@ -9053,7 +9053,7 @@
         <v>19202</v>
       </c>
       <c r="B73" t="n">
-        <v>131875</v>
+        <v>162652</v>
       </c>
       <c r="C73" t="s">
         <v>618</v>
@@ -9187,7 +9187,7 @@
         <v>19202</v>
       </c>
       <c r="B75" t="n">
-        <v>131876</v>
+        <v>162653</v>
       </c>
       <c r="C75" t="s">
         <v>632</v>
@@ -9254,7 +9254,7 @@
         <v>19202</v>
       </c>
       <c r="B76" t="n">
-        <v>131877</v>
+        <v>162654</v>
       </c>
       <c r="C76" t="s">
         <v>638</v>
@@ -9321,7 +9321,7 @@
         <v>19202</v>
       </c>
       <c r="B77" t="n">
-        <v>131878</v>
+        <v>162655</v>
       </c>
       <c r="C77" t="s">
         <v>644</v>
@@ -9463,7 +9463,7 @@
         <v>19202</v>
       </c>
       <c r="B79" t="n">
-        <v>131879</v>
+        <v>162656</v>
       </c>
       <c r="C79" t="s">
         <v>658</v>
@@ -9520,7 +9520,7 @@
         <v>19202</v>
       </c>
       <c r="B80" t="n">
-        <v>131880</v>
+        <v>162657</v>
       </c>
       <c r="C80" t="s">
         <v>664</v>
@@ -9591,7 +9591,7 @@
         <v>19202</v>
       </c>
       <c r="B81" t="n">
-        <v>131881</v>
+        <v>162658</v>
       </c>
       <c r="C81" t="s">
         <v>672</v>
@@ -9719,7 +9719,7 @@
         <v>19202</v>
       </c>
       <c r="B83" t="n">
-        <v>131882</v>
+        <v>162659</v>
       </c>
       <c r="C83" t="s">
         <v>686</v>
@@ -9786,7 +9786,7 @@
         <v>19202</v>
       </c>
       <c r="B84" t="n">
-        <v>131883</v>
+        <v>162660</v>
       </c>
       <c r="C84" t="s">
         <v>692</v>
@@ -9857,7 +9857,7 @@
         <v>19202</v>
       </c>
       <c r="B85" t="n">
-        <v>131884</v>
+        <v>162661</v>
       </c>
       <c r="C85" t="s">
         <v>700</v>
@@ -9926,7 +9926,7 @@
         <v>19202</v>
       </c>
       <c r="B86" t="n">
-        <v>131885</v>
+        <v>162662</v>
       </c>
       <c r="C86" t="s">
         <v>707</v>
@@ -9997,7 +9997,7 @@
         <v>19202</v>
       </c>
       <c r="B87" t="n">
-        <v>131886</v>
+        <v>162663</v>
       </c>
       <c r="C87" t="s">
         <v>715</v>
@@ -10068,7 +10068,7 @@
         <v>19202</v>
       </c>
       <c r="B88" t="n">
-        <v>131887</v>
+        <v>162664</v>
       </c>
       <c r="C88" t="s">
         <v>723</v>
@@ -10139,7 +10139,7 @@
         <v>19202</v>
       </c>
       <c r="B89" t="n">
-        <v>131888</v>
+        <v>162665</v>
       </c>
       <c r="C89" t="s">
         <v>729</v>
@@ -10279,7 +10279,7 @@
         <v>19202</v>
       </c>
       <c r="B91" t="n">
-        <v>131889</v>
+        <v>162666</v>
       </c>
       <c r="C91" t="s">
         <v>748</v>
@@ -10354,7 +10354,7 @@
         <v>19202</v>
       </c>
       <c r="B92" t="n">
-        <v>131890</v>
+        <v>162667</v>
       </c>
       <c r="C92" t="s">
         <v>756</v>
@@ -10421,7 +10421,7 @@
         <v>19202</v>
       </c>
       <c r="B93" t="n">
-        <v>131891</v>
+        <v>162668</v>
       </c>
       <c r="C93" t="s">
         <v>762</v>
@@ -10553,7 +10553,7 @@
         <v>19202</v>
       </c>
       <c r="B95" t="n">
-        <v>131892</v>
+        <v>162669</v>
       </c>
       <c r="C95" t="s">
         <v>776</v>
@@ -10624,7 +10624,7 @@
         <v>19202</v>
       </c>
       <c r="B96" t="n">
-        <v>131893</v>
+        <v>162670</v>
       </c>
       <c r="C96" t="s">
         <v>784</v>
@@ -10924,7 +10924,7 @@
         <v>19202</v>
       </c>
       <c r="B100" t="n">
-        <v>131894</v>
+        <v>162671</v>
       </c>
       <c r="C100" t="s">
         <v>814</v>
@@ -10999,7 +10999,7 @@
         <v>19202</v>
       </c>
       <c r="B101" t="n">
-        <v>131895</v>
+        <v>162672</v>
       </c>
       <c r="C101" t="s">
         <v>821</v>
@@ -11074,7 +11074,7 @@
         <v>19202</v>
       </c>
       <c r="B102" t="n">
-        <v>131896</v>
+        <v>162673</v>
       </c>
       <c r="C102" t="s">
         <v>828</v>
@@ -11299,7 +11299,7 @@
         <v>19202</v>
       </c>
       <c r="B105" t="n">
-        <v>131897</v>
+        <v>162674</v>
       </c>
       <c r="C105" t="s">
         <v>854</v>
@@ -11445,7 +11445,7 @@
         <v>19202</v>
       </c>
       <c r="B107" t="n">
-        <v>131898</v>
+        <v>162675</v>
       </c>
       <c r="C107" t="s">
         <v>867</v>
@@ -11516,7 +11516,7 @@
         <v>19202</v>
       </c>
       <c r="B108" t="n">
-        <v>131899</v>
+        <v>162676</v>
       </c>
       <c r="C108" t="s">
         <v>874</v>
@@ -11587,7 +11587,7 @@
         <v>19202</v>
       </c>
       <c r="B109" t="n">
-        <v>131900</v>
+        <v>162677</v>
       </c>
       <c r="C109" t="s">
         <v>881</v>
@@ -11658,7 +11658,7 @@
         <v>19202</v>
       </c>
       <c r="B110" t="n">
-        <v>131901</v>
+        <v>162678</v>
       </c>
       <c r="C110" t="s">
         <v>888</v>
@@ -11729,7 +11729,7 @@
         <v>19202</v>
       </c>
       <c r="B111" t="n">
-        <v>131902</v>
+        <v>162679</v>
       </c>
       <c r="C111" t="s">
         <v>895</v>
@@ -11867,7 +11867,7 @@
         <v>19202</v>
       </c>
       <c r="B113" t="n">
-        <v>131903</v>
+        <v>162680</v>
       </c>
       <c r="C113" t="s">
         <v>908</v>
@@ -11938,7 +11938,7 @@
         <v>19202</v>
       </c>
       <c r="B114" t="n">
-        <v>131904</v>
+        <v>162681</v>
       </c>
       <c r="C114" t="s">
         <v>916</v>
@@ -12005,7 +12005,7 @@
         <v>19202</v>
       </c>
       <c r="B115" t="n">
-        <v>131905</v>
+        <v>162682</v>
       </c>
       <c r="C115" t="s">
         <v>922</v>
@@ -12066,7 +12066,7 @@
         <v>19202</v>
       </c>
       <c r="B116" t="n">
-        <v>131906</v>
+        <v>162683</v>
       </c>
       <c r="C116" t="s">
         <v>929</v>
@@ -12137,7 +12137,7 @@
         <v>19202</v>
       </c>
       <c r="B117" t="n">
-        <v>131907</v>
+        <v>162684</v>
       </c>
       <c r="C117" t="s">
         <v>936</v>
@@ -12204,7 +12204,7 @@
         <v>19202</v>
       </c>
       <c r="B118" t="n">
-        <v>131908</v>
+        <v>162685</v>
       </c>
       <c r="C118" t="s">
         <v>942</v>
@@ -12265,7 +12265,7 @@
         <v>19202</v>
       </c>
       <c r="B119" t="n">
-        <v>131909</v>
+        <v>162686</v>
       </c>
       <c r="C119" t="s">
         <v>950</v>
@@ -12336,7 +12336,7 @@
         <v>19202</v>
       </c>
       <c r="B120" t="n">
-        <v>131910</v>
+        <v>162687</v>
       </c>
       <c r="C120" t="s">
         <v>957</v>
@@ -12478,7 +12478,7 @@
         <v>19202</v>
       </c>
       <c r="B122" t="n">
-        <v>131911</v>
+        <v>162688</v>
       </c>
       <c r="C122" t="s">
         <v>971</v>
@@ -12549,7 +12549,7 @@
         <v>19202</v>
       </c>
       <c r="B123" t="n">
-        <v>131912</v>
+        <v>162689</v>
       </c>
       <c r="C123" t="s">
         <v>978</v>
@@ -12620,7 +12620,7 @@
         <v>19202</v>
       </c>
       <c r="B124" t="n">
-        <v>131913</v>
+        <v>162690</v>
       </c>
       <c r="C124" t="s">
         <v>985</v>
@@ -12687,7 +12687,7 @@
         <v>19202</v>
       </c>
       <c r="B125" t="n">
-        <v>131914</v>
+        <v>162691</v>
       </c>
       <c r="C125" t="s">
         <v>992</v>
@@ -12758,7 +12758,7 @@
         <v>19202</v>
       </c>
       <c r="B126" t="n">
-        <v>131915</v>
+        <v>146920</v>
       </c>
       <c r="C126" t="s">
         <v>999</v>
@@ -12829,7 +12829,7 @@
         <v>19202</v>
       </c>
       <c r="B127" t="n">
-        <v>131916</v>
+        <v>162692</v>
       </c>
       <c r="C127" t="s">
         <v>1006</v>
@@ -12900,7 +12900,7 @@
         <v>19202</v>
       </c>
       <c r="B128" t="n">
-        <v>131917</v>
+        <v>162693</v>
       </c>
       <c r="C128" t="s">
         <v>1014</v>
@@ -12971,7 +12971,7 @@
         <v>19202</v>
       </c>
       <c r="B129" t="n">
-        <v>131918</v>
+        <v>162694</v>
       </c>
       <c r="C129" t="s">
         <v>1021</v>
@@ -13038,7 +13038,7 @@
         <v>19202</v>
       </c>
       <c r="B130" t="n">
-        <v>131919</v>
+        <v>162695</v>
       </c>
       <c r="C130" t="s">
         <v>1027</v>
@@ -13105,7 +13105,7 @@
         <v>19202</v>
       </c>
       <c r="B131" t="n">
-        <v>131920</v>
+        <v>162696</v>
       </c>
       <c r="C131" t="s">
         <v>1035</v>
@@ -13172,7 +13172,7 @@
         <v>19202</v>
       </c>
       <c r="B132" t="n">
-        <v>131921</v>
+        <v>162697</v>
       </c>
       <c r="C132" t="s">
         <v>1043</v>
@@ -13239,7 +13239,7 @@
         <v>19202</v>
       </c>
       <c r="B133" t="n">
-        <v>131922</v>
+        <v>162698</v>
       </c>
       <c r="C133" t="s">
         <v>1050</v>
@@ -13306,7 +13306,7 @@
         <v>19202</v>
       </c>
       <c r="B134" t="n">
-        <v>131923</v>
+        <v>162699</v>
       </c>
       <c r="C134" t="s">
         <v>1057</v>
@@ -13377,7 +13377,7 @@
         <v>19202</v>
       </c>
       <c r="B135" t="n">
-        <v>131924</v>
+        <v>162700</v>
       </c>
       <c r="C135" t="s">
         <v>1065</v>
@@ -13448,7 +13448,7 @@
         <v>19202</v>
       </c>
       <c r="B136" t="n">
-        <v>131925</v>
+        <v>162701</v>
       </c>
       <c r="C136" t="s">
         <v>1072</v>
@@ -13519,7 +13519,7 @@
         <v>19202</v>
       </c>
       <c r="B137" t="n">
-        <v>131926</v>
+        <v>162702</v>
       </c>
       <c r="C137" t="s">
         <v>1079</v>
@@ -13590,7 +13590,7 @@
         <v>19202</v>
       </c>
       <c r="B138" t="n">
-        <v>131927</v>
+        <v>162703</v>
       </c>
       <c r="C138" t="s">
         <v>1085</v>
@@ -13661,7 +13661,7 @@
         <v>19202</v>
       </c>
       <c r="B139" t="n">
-        <v>131928</v>
+        <v>162704</v>
       </c>
       <c r="C139" t="s">
         <v>1091</v>
@@ -13732,7 +13732,7 @@
         <v>19202</v>
       </c>
       <c r="B140" t="n">
-        <v>131929</v>
+        <v>162705</v>
       </c>
       <c r="C140" t="s">
         <v>1099</v>
@@ -13803,7 +13803,7 @@
         <v>19202</v>
       </c>
       <c r="B141" t="n">
-        <v>131930</v>
+        <v>162706</v>
       </c>
       <c r="C141" t="s">
         <v>1106</v>
@@ -13874,7 +13874,7 @@
         <v>19202</v>
       </c>
       <c r="B142" t="n">
-        <v>131931</v>
+        <v>162707</v>
       </c>
       <c r="C142" t="s">
         <v>1113</v>
@@ -13945,7 +13945,7 @@
         <v>19202</v>
       </c>
       <c r="B143" t="n">
-        <v>131932</v>
+        <v>162708</v>
       </c>
       <c r="C143" t="s">
         <v>1120</v>
@@ -14016,7 +14016,7 @@
         <v>19202</v>
       </c>
       <c r="B144" t="n">
-        <v>131933</v>
+        <v>131953</v>
       </c>
       <c r="C144" t="s">
         <v>1128</v>
@@ -14158,7 +14158,7 @@
         <v>19202</v>
       </c>
       <c r="B146" t="n">
-        <v>131934</v>
+        <v>162709</v>
       </c>
       <c r="C146" t="s">
         <v>1144</v>
@@ -14227,7 +14227,7 @@
         <v>19202</v>
       </c>
       <c r="B147" t="n">
-        <v>131935</v>
+        <v>162710</v>
       </c>
       <c r="C147" t="s">
         <v>1151</v>
@@ -14294,7 +14294,7 @@
         <v>19202</v>
       </c>
       <c r="B148" t="n">
-        <v>131936</v>
+        <v>162711</v>
       </c>
       <c r="C148" t="s">
         <v>1157</v>
@@ -14365,7 +14365,7 @@
         <v>19202</v>
       </c>
       <c r="B149" t="n">
-        <v>131937</v>
+        <v>162712</v>
       </c>
       <c r="C149" t="s">
         <v>1165</v>
@@ -14436,7 +14436,7 @@
         <v>19202</v>
       </c>
       <c r="B150" t="n">
-        <v>131938</v>
+        <v>162713</v>
       </c>
       <c r="C150" t="s">
         <v>1173</v>
@@ -14507,7 +14507,7 @@
         <v>19202</v>
       </c>
       <c r="B151" t="n">
-        <v>131939</v>
+        <v>162714</v>
       </c>
       <c r="C151" t="s">
         <v>1181</v>
@@ -14578,7 +14578,7 @@
         <v>19202</v>
       </c>
       <c r="B152" t="n">
-        <v>131940</v>
+        <v>162715</v>
       </c>
       <c r="C152" t="s">
         <v>1188</v>
@@ -14647,7 +14647,7 @@
         <v>19202</v>
       </c>
       <c r="B153" t="n">
-        <v>131941</v>
+        <v>162716</v>
       </c>
       <c r="C153" t="s">
         <v>1196</v>
@@ -14718,7 +14718,7 @@
         <v>19202</v>
       </c>
       <c r="B154" t="n">
-        <v>131942</v>
+        <v>162717</v>
       </c>
       <c r="C154" t="s">
         <v>1204</v>
@@ -14854,7 +14854,7 @@
         <v>19202</v>
       </c>
       <c r="B156" t="n">
-        <v>131943</v>
+        <v>162718</v>
       </c>
       <c r="C156" t="s">
         <v>1218</v>
@@ -14923,7 +14923,7 @@
         <v>19202</v>
       </c>
       <c r="B157" t="n">
-        <v>131944</v>
+        <v>162719</v>
       </c>
       <c r="C157" t="s">
         <v>1226</v>
@@ -15106,7 +15106,7 @@
         <v>19202</v>
       </c>
       <c r="B160" t="n">
-        <v>131945</v>
+        <v>162720</v>
       </c>
       <c r="C160" t="s">
         <v>1244</v>
